--- a/data/trans_orig/Q4503_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q4503_R-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>108694</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>89641</v>
+        <v>90912</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>126632</v>
+        <v>128000</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1860749454233881</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1534573330174491</v>
+        <v>0.1556329826265787</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2167829210166399</v>
+        <v>0.2191251912655791</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>104</v>
@@ -764,19 +764,19 @@
         <v>109646</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>88530</v>
+        <v>89504</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>128778</v>
+        <v>130519</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1189998444838337</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09608214776584896</v>
+        <v>0.09713965466958116</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1397644893793499</v>
+        <v>0.1416534479390539</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>210</v>
@@ -785,19 +785,19 @@
         <v>218340</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>190573</v>
+        <v>192596</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>246608</v>
+        <v>251922</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1450246686374326</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1265814716839617</v>
+        <v>0.1279251481491518</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1638009950140513</v>
+        <v>0.1673304831834779</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>83085</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>68013</v>
+        <v>66347</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>103184</v>
+        <v>102182</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1422338272854857</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1164325159510638</v>
+        <v>0.1135806133437617</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1766426500537408</v>
+        <v>0.1749277523809168</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>68</v>
@@ -835,19 +835,19 @@
         <v>71019</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55979</v>
+        <v>54964</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>89527</v>
+        <v>88648</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07707728499736331</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06075433151686015</v>
+        <v>0.05965311055975348</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09716443092050651</v>
+        <v>0.09621104256730997</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>150</v>
@@ -856,19 +856,19 @@
         <v>154103</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>130127</v>
+        <v>132470</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>182343</v>
+        <v>181206</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1023577174045095</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08643213808817747</v>
+        <v>0.0879883070237048</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1211150841634942</v>
+        <v>0.1203598783107462</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>174019</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>153426</v>
+        <v>153658</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>194277</v>
+        <v>197464</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2979059943399641</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2626526329624626</v>
+        <v>0.2630497282343697</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.332586076331586</v>
+        <v>0.3380409862601622</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>254</v>
@@ -906,19 +906,19 @@
         <v>267024</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>240102</v>
+        <v>239851</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>295669</v>
+        <v>295545</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2898037856852113</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2605846256876521</v>
+        <v>0.2603128577257691</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3208922945201666</v>
+        <v>0.3207577908463424</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>425</v>
@@ -927,19 +927,19 @@
         <v>441043</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>406712</v>
+        <v>402671</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>477483</v>
+        <v>475351</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2929474045921098</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2701438876872601</v>
+        <v>0.2674598541965854</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3171509597990165</v>
+        <v>0.315735253495469</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>45796</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33906</v>
+        <v>34503</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58597</v>
+        <v>60977</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07839915953423823</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05804441787790102</v>
+        <v>0.05906558660473958</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1003133408940519</v>
+        <v>0.1043870864689287</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -977,19 +977,19 @@
         <v>88706</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>70450</v>
+        <v>72532</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>107573</v>
+        <v>108298</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09627305096873856</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.076459685844722</v>
+        <v>0.07871936173589276</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1167497233053348</v>
+        <v>0.1175367073098805</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>130</v>
@@ -998,19 +998,19 @@
         <v>134502</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>115539</v>
+        <v>112354</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>160733</v>
+        <v>160291</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08933806503494807</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0767425154559031</v>
+        <v>0.07462689991068949</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1067614020715662</v>
+        <v>0.106467727593487</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>172547</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>150289</v>
+        <v>149527</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>195875</v>
+        <v>196472</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2953860734169239</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2572812950214683</v>
+        <v>0.2559782633889829</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3353214101857063</v>
+        <v>0.3363440186804375</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>372</v>
@@ -1048,19 +1048,19 @@
         <v>385002</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>356007</v>
+        <v>355247</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>415050</v>
+        <v>414739</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4178460338648531</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3863780662071833</v>
+        <v>0.3855531175684156</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.450457581065045</v>
+        <v>0.4501201415965218</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>543</v>
@@ -1069,19 +1069,19 @@
         <v>557549</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>515645</v>
+        <v>521439</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>595199</v>
+        <v>600132</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3703321443310001</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3424990406698444</v>
+        <v>0.3463475586271598</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3953400243638938</v>
+        <v>0.3986167849279477</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>217070</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>189559</v>
+        <v>193066</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>245129</v>
+        <v>248195</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2015741872888589</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1760271556458288</v>
+        <v>0.1792833909970672</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2276299111870718</v>
+        <v>0.2304769138357583</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>120</v>
@@ -1194,19 +1194,19 @@
         <v>125823</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>106092</v>
+        <v>105063</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>146472</v>
+        <v>149390</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1190948529640763</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1004184227834483</v>
+        <v>0.09944524624131788</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1386392822349156</v>
+        <v>0.1414011227912854</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>328</v>
@@ -1215,19 +1215,19 @@
         <v>342894</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>308302</v>
+        <v>308653</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>376277</v>
+        <v>379346</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1607284939370547</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1445139278053092</v>
+        <v>0.1446786308676689</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1763767966528557</v>
+        <v>0.1778154418361109</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>223630</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>196236</v>
+        <v>199504</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>252120</v>
+        <v>252309</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2076652446198516</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1822274414387136</v>
+        <v>0.1852622496044438</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.234122039804841</v>
+        <v>0.2342972794400827</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>124</v>
@@ -1265,19 +1265,19 @@
         <v>129767</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>109227</v>
+        <v>109558</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>151969</v>
+        <v>153645</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1228281246217185</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1033858983217628</v>
+        <v>0.1036991986379254</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1438424734477027</v>
+        <v>0.1454285964626069</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>341</v>
@@ -1286,19 +1286,19 @@
         <v>353397</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>318475</v>
+        <v>321248</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>386845</v>
+        <v>390465</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1656519207168148</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1492827272167629</v>
+        <v>0.1505825429512841</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1813305451868623</v>
+        <v>0.1830273063174241</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>331414</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>299870</v>
+        <v>299108</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>359840</v>
+        <v>361961</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3077547343644001</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2784626885945525</v>
+        <v>0.2777551467203206</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3341513317559235</v>
+        <v>0.3361209025476778</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>250</v>
@@ -1336,19 +1336,19 @@
         <v>256196</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>228328</v>
+        <v>228127</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>283492</v>
+        <v>285239</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2424965713732656</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2161188301990753</v>
+        <v>0.2159282949777449</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2683323327212138</v>
+        <v>0.2699860485127864</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>574</v>
@@ -1357,19 +1357,19 @@
         <v>587610</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>548885</v>
+        <v>549043</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>633627</v>
+        <v>634041</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2754373674014004</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2572854667001535</v>
+        <v>0.2573592749783611</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2970073575733433</v>
+        <v>0.2972016823710706</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>105238</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87032</v>
+        <v>87643</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>125641</v>
+        <v>125675</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09772483788285559</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08081852319707754</v>
+        <v>0.08138619911053036</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1166721709774721</v>
+        <v>0.1167032583651163</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>131</v>
@@ -1407,19 +1407,19 @@
         <v>132644</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>111579</v>
+        <v>112773</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>154246</v>
+        <v>154589</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1255507294271131</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1056125044742614</v>
+        <v>0.106742598993114</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1459978425981778</v>
+        <v>0.1463222082025032</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>237</v>
@@ -1428,19 +1428,19 @@
         <v>237881</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>207702</v>
+        <v>211149</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>265535</v>
+        <v>269190</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.111504869481823</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09735847274018229</v>
+        <v>0.09897427971944861</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1244673203534988</v>
+        <v>0.1261806610038745</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>199525</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>175838</v>
+        <v>175111</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>228712</v>
+        <v>225182</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1852809958440338</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1632852118930525</v>
+        <v>0.1626105234006972</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2123851557423697</v>
+        <v>0.2091071344650872</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>402</v>
@@ -1478,19 +1478,19 @@
         <v>412064</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>380924</v>
+        <v>383410</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>444914</v>
+        <v>443287</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3900297216138265</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3605549295236616</v>
+        <v>0.3629076645066008</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4211225167469722</v>
+        <v>0.4195830204217497</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>601</v>
@@ -1499,19 +1499,19 @@
         <v>611589</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>569801</v>
+        <v>565801</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>651449</v>
+        <v>653873</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2866773484629071</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2670893550129003</v>
+        <v>0.2652143315665467</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3053611283282122</v>
+        <v>0.3064977145501248</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>216197</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>191984</v>
+        <v>189973</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>244112</v>
+        <v>241770</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1929122551560438</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1713076194948445</v>
+        <v>0.1695128681890027</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2178211174335518</v>
+        <v>0.2157312367203979</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>102</v>
@@ -1624,19 +1624,19 @@
         <v>104029</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>83579</v>
+        <v>86351</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>122220</v>
+        <v>124777</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1048832029716374</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08426585187651435</v>
+        <v>0.08706053150935347</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1232237060631723</v>
+        <v>0.1258014283621245</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>317</v>
@@ -1645,19 +1645,19 @@
         <v>320225</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>289246</v>
+        <v>289378</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>357046</v>
+        <v>354056</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1515821645090801</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1369178813343321</v>
+        <v>0.1369801958828566</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1690116573615071</v>
+        <v>0.1675962723970979</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>208720</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>184618</v>
+        <v>184699</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>237490</v>
+        <v>235923</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1862409406241712</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1647348692210347</v>
+        <v>0.1648073340177092</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2119124373157259</v>
+        <v>0.2105143869512345</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>98</v>
@@ -1695,19 +1695,19 @@
         <v>101701</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>82136</v>
+        <v>82443</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>120999</v>
+        <v>122736</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1025359461225517</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0828106780722624</v>
+        <v>0.08311966042617157</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1219926628813793</v>
+        <v>0.1237435279077017</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>304</v>
@@ -1716,19 +1716,19 @@
         <v>310421</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>280620</v>
+        <v>278334</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>344366</v>
+        <v>341518</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1469410171953879</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1328347041677085</v>
+        <v>0.1317525070097361</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1630094225932814</v>
+        <v>0.1616613262521605</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>327915</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>297650</v>
+        <v>297662</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>360185</v>
+        <v>360518</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2925988174204827</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2655929443796433</v>
+        <v>0.2656043055555405</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.32139287375804</v>
+        <v>0.3216902861973578</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>214</v>
@@ -1766,19 +1766,19 @@
         <v>215955</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>190776</v>
+        <v>191644</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>243499</v>
+        <v>242712</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2177290971883262</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1923429216492634</v>
+        <v>0.1932182599763289</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2454992149885298</v>
+        <v>0.244705751649201</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>538</v>
@@ -1787,19 +1787,19 @@
         <v>543871</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>504487</v>
+        <v>503064</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>581252</v>
+        <v>586695</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2574471004915574</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2388045656831674</v>
+        <v>0.2381308870605796</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2751420044232537</v>
+        <v>0.277718514274839</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>108365</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>89074</v>
+        <v>89648</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>127939</v>
+        <v>129193</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09669395953807577</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07948110490558453</v>
+        <v>0.07999322532612377</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1141600244751902</v>
+        <v>0.1152786599848193</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>146</v>
@@ -1837,19 +1837,19 @@
         <v>152108</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>129070</v>
+        <v>128493</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>175111</v>
+        <v>174783</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1533567725577612</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1301305417148972</v>
+        <v>0.1295486940126539</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.176549215062997</v>
+        <v>0.1762182239480751</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>253</v>
@@ -1858,19 +1858,19 @@
         <v>260472</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>231291</v>
+        <v>231040</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>291211</v>
+        <v>294164</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1232974403242793</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1094841541243346</v>
+        <v>0.109365310070137</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1378476746211655</v>
+        <v>0.1392458150288823</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>259502</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>230523</v>
+        <v>230302</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>286673</v>
+        <v>286239</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2315540272612266</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2056953378800382</v>
+        <v>0.2054982865012281</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2557981517533078</v>
+        <v>0.2554115223677774</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>419</v>
@@ -1908,19 +1908,19 @@
         <v>418061</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>387430</v>
+        <v>388080</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>450720</v>
+        <v>451731</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4214949811597235</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3906120591164353</v>
+        <v>0.391266787111182</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4544213095380488</v>
+        <v>0.4554411092456832</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>669</v>
@@ -1929,19 +1929,19 @@
         <v>677564</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>635339</v>
+        <v>630868</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>719748</v>
+        <v>718272</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3207322774796954</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3007447848207264</v>
+        <v>0.2986282561176168</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3407007368829886</v>
+        <v>0.3400017061130881</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>81634</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>66490</v>
+        <v>66803</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>99997</v>
+        <v>99971</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1825443038456365</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1486799637112841</v>
+        <v>0.1493813217512609</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2236061372614892</v>
+        <v>0.2235486380359213</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -2054,19 +2054,19 @@
         <v>32862</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23478</v>
+        <v>24022</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>46132</v>
+        <v>45098</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09632448037324373</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06881999977943659</v>
+        <v>0.0704131767910755</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1352221004500436</v>
+        <v>0.1321907109908219</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>112</v>
@@ -2075,19 +2075,19 @@
         <v>114496</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>96457</v>
+        <v>95150</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>136995</v>
+        <v>135140</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1452330786307901</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1223519667017422</v>
+        <v>0.1206934562072487</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1737728950445216</v>
+        <v>0.1714196131067962</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>90741</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>74267</v>
+        <v>74575</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>109785</v>
+        <v>109394</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2029098547246567</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1660707985041831</v>
+        <v>0.1667595000750383</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2454949613268228</v>
+        <v>0.2446204175193042</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>55</v>
@@ -2125,19 +2125,19 @@
         <v>56222</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>44172</v>
+        <v>43041</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>71325</v>
+        <v>70865</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1647967030929483</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1294752222338508</v>
+        <v>0.1261612863444309</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2090673925929863</v>
+        <v>0.2077179148312475</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>146</v>
@@ -2146,19 +2146,19 @@
         <v>146963</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>126116</v>
+        <v>125118</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>167072</v>
+        <v>167939</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1864165666743327</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1599725080327278</v>
+        <v>0.1587066976067605</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2119246276411582</v>
+        <v>0.2130240773087683</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>123538</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>104319</v>
+        <v>104254</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>143736</v>
+        <v>142290</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2762484918079957</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2332720194838917</v>
+        <v>0.23312688165568</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3214128245027636</v>
+        <v>0.3181808484100136</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>86</v>
@@ -2196,19 +2196,19 @@
         <v>86121</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>71678</v>
+        <v>69684</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>103216</v>
+        <v>102087</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2524376286107078</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2101027391515886</v>
+        <v>0.2042577955626362</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3025473212640188</v>
+        <v>0.2992363303885504</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>205</v>
@@ -2217,19 +2217,19 @@
         <v>209659</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>185028</v>
+        <v>185324</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>233463</v>
+        <v>237773</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.26594445216219</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2347000644036798</v>
+        <v>0.235075630745708</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2961379926655159</v>
+        <v>0.3016053956614766</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>46760</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>34785</v>
+        <v>33602</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>62125</v>
+        <v>62247</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1045615099405445</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0777843070701445</v>
+        <v>0.0751394439717902</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1389201190525493</v>
+        <v>0.1391926944805935</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>49</v>
@@ -2267,19 +2267,19 @@
         <v>48168</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>36907</v>
+        <v>35961</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>61127</v>
+        <v>60606</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1411909791509147</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1081821221949176</v>
+        <v>0.1054090119970575</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1791750919202811</v>
+        <v>0.1776486409053406</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>93</v>
@@ -2288,19 +2288,19 @@
         <v>94928</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>77322</v>
+        <v>77761</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>113911</v>
+        <v>114286</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.120412741364673</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09808030166865589</v>
+        <v>0.09863705449880955</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.144491009394236</v>
+        <v>0.1449669894784195</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>104527</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>89889</v>
+        <v>86110</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>123892</v>
+        <v>123509</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2337358396811667</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2010031771027069</v>
+        <v>0.1925530391953588</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2770395965801651</v>
+        <v>0.2761835636573882</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>117</v>
@@ -2338,19 +2338,19 @@
         <v>117785</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>100079</v>
+        <v>101141</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>135425</v>
+        <v>136337</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3452502087721854</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.293351014120574</v>
+        <v>0.296463848117607</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.396957216329724</v>
+        <v>0.3996303312361671</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>219</v>
@@ -2359,19 +2359,19 @@
         <v>222312</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>199066</v>
+        <v>197574</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>250802</v>
+        <v>248836</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2819931611680142</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2525064817732542</v>
+        <v>0.2506151105711433</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3181323412055052</v>
+        <v>0.3156378446228338</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>623595</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>580594</v>
+        <v>574935</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>668269</v>
+        <v>670340</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1931282177799932</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1798108779304768</v>
+        <v>0.17805825571226</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2069640122631865</v>
+        <v>0.2076053605886566</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>358</v>
@@ -2484,19 +2484,19 @@
         <v>372360</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>334547</v>
+        <v>336763</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>410288</v>
+        <v>407733</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.112464721294142</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1010441664364486</v>
+        <v>0.1017133264489131</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1239203878191352</v>
+        <v>0.1231486587981934</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>967</v>
@@ -2505,19 +2505,19 @@
         <v>995955</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>942773</v>
+        <v>938897</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1061863</v>
+        <v>1056598</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1522908395259281</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1441588250517195</v>
+        <v>0.1435661423990377</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1623688331683714</v>
+        <v>0.161563854365282</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>606175</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>565551</v>
+        <v>567843</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>654378</v>
+        <v>653485</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1877334749680808</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1751521162839457</v>
+        <v>0.1758618996727141</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.202661877241139</v>
+        <v>0.2023852067745521</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>345</v>
@@ -2555,19 +2555,19 @@
         <v>358708</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>324924</v>
+        <v>321004</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>398633</v>
+        <v>396408</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1083415641951707</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09813749027293286</v>
+        <v>0.09695368798774057</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1203999407753247</v>
+        <v>0.1197280897164316</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>941</v>
@@ -2576,19 +2576,19 @@
         <v>964884</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>908608</v>
+        <v>906140</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1024114</v>
+        <v>1018206</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1475398603618133</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1389347480019564</v>
+        <v>0.13855739833967</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1565967493550269</v>
+        <v>0.1556933588651734</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>956886</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>903093</v>
+        <v>906311</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1005670</v>
+        <v>1012118</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2963490928464923</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2796894542470127</v>
+        <v>0.2806858175825774</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3114577045925579</v>
+        <v>0.3134546294589259</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>804</v>
@@ -2626,19 +2626,19 @@
         <v>825297</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>773998</v>
+        <v>777165</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>869002</v>
+        <v>872627</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2492664500890937</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2337724841769679</v>
+        <v>0.2347290032784407</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2624667138338325</v>
+        <v>0.2635615533936838</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1742</v>
@@ -2647,19 +2647,19 @@
         <v>1782183</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1710771</v>
+        <v>1718576</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1856213</v>
+        <v>1860283</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2725126392429448</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2615929900112829</v>
+        <v>0.2627864030090042</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2838324701597523</v>
+        <v>0.2844547585331164</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>306158</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>272359</v>
+        <v>273671</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>338888</v>
+        <v>340188</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09481770807448986</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08434998188387272</v>
+        <v>0.08475638884321469</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1049541179980544</v>
+        <v>0.1053568171897914</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>412</v>
@@ -2697,19 +2697,19 @@
         <v>421625</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>383722</v>
+        <v>382637</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>460589</v>
+        <v>458819</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1273445036920677</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1158965622952261</v>
+        <v>0.1155687712615808</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1391127069670371</v>
+        <v>0.1385781513630264</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>713</v>
@@ -2718,19 +2718,19 @@
         <v>727784</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>680855</v>
+        <v>680778</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>781521</v>
+        <v>780046</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1112849964254317</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1041091552672146</v>
+        <v>0.1040974210713681</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1195019225596928</v>
+        <v>0.1192763806483651</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>736101</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>688917</v>
+        <v>688695</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>783416</v>
+        <v>787082</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2279715063309438</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.213358781066377</v>
+        <v>0.2132897890661487</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2426252713927892</v>
+        <v>0.2437605819817721</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1310</v>
@@ -2768,19 +2768,19 @@
         <v>1332912</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1277116</v>
+        <v>1278662</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1386734</v>
+        <v>1389282</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4025827607295258</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3857304391577851</v>
+        <v>0.3861972535525795</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4188386441964812</v>
+        <v>0.4196080826088776</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2032</v>
@@ -2789,19 +2789,19 @@
         <v>2069013</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1997709</v>
+        <v>1999966</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2142127</v>
+        <v>2143185</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.316371664443882</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3054684732955645</v>
+        <v>0.3058136950676626</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3275514379895577</v>
+        <v>0.3277131893188271</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>227478</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>200295</v>
+        <v>198497</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>256042</v>
+        <v>254994</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2181192453659873</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1920548249740117</v>
+        <v>0.1903311957350418</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2455084804686552</v>
+        <v>0.2445039877759851</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>156</v>
@@ -3154,19 +3154,19 @@
         <v>168651</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>145537</v>
+        <v>142462</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>196249</v>
+        <v>193227</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1513073419905519</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.130570544300143</v>
+        <v>0.1278116693067364</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1760665415252649</v>
+        <v>0.1733553874484937</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>367</v>
@@ -3175,19 +3175,19 @@
         <v>396129</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>358345</v>
+        <v>363036</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>437900</v>
+        <v>436563</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1836027949710519</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1660902711342317</v>
+        <v>0.1682642973834005</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.202963181904671</v>
+        <v>0.2023434896185003</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>158080</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>135797</v>
+        <v>136348</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>184458</v>
+        <v>184448</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1515766168579311</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1302104828858926</v>
+        <v>0.130738902672304</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1768692708457274</v>
+        <v>0.1768598199224862</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>113</v>
@@ -3225,19 +3225,19 @@
         <v>122281</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>99531</v>
+        <v>101225</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>146107</v>
+        <v>146060</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1097053439421335</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08929560097785838</v>
+        <v>0.09081474466870097</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.131081475769883</v>
+        <v>0.1310389773656983</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>261</v>
@@ -3246,19 +3246,19 @@
         <v>280361</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>248623</v>
+        <v>250992</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>310840</v>
+        <v>311217</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1299450266538672</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1152350616342729</v>
+        <v>0.1163327917388072</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1440719263467951</v>
+        <v>0.1442465951059809</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>193732</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>167669</v>
+        <v>169120</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>218935</v>
+        <v>219441</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1857620320039054</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1607714406785178</v>
+        <v>0.1621620067942253</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.209927661717971</v>
+        <v>0.2104127649760346</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>173</v>
@@ -3296,19 +3296,19 @@
         <v>185234</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>161015</v>
+        <v>159677</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>209223</v>
+        <v>212689</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1661851737104818</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1444567092289975</v>
+        <v>0.1432561750934007</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1877067137741776</v>
+        <v>0.19081668194106</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>356</v>
@@ -3317,19 +3317,19 @@
         <v>378967</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>347518</v>
+        <v>342606</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>418883</v>
+        <v>417113</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1756482106033004</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1610720817717482</v>
+        <v>0.1587951221965326</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1941493661178165</v>
+        <v>0.1933287209904745</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>48530</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36879</v>
+        <v>36276</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63593</v>
+        <v>63581</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04653328558929355</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03536171890933212</v>
+        <v>0.03478404220822859</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06097719205808205</v>
+        <v>0.06096522787103614</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>81</v>
@@ -3367,19 +3367,19 @@
         <v>85939</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>68665</v>
+        <v>70202</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>105521</v>
+        <v>107945</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07710102065345277</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06160345010979415</v>
+        <v>0.06298293000355397</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09466976610331414</v>
+        <v>0.09684418162680404</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>128</v>
@@ -3388,19 +3388,19 @@
         <v>134469</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114258</v>
+        <v>112325</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>158986</v>
+        <v>158057</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06232522770922876</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05295752147120603</v>
+        <v>0.05206184373050223</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07368878330773276</v>
+        <v>0.0732583222525994</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>415085</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>381656</v>
+        <v>383364</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>450315</v>
+        <v>448620</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3980088201828826</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3659544874184878</v>
+        <v>0.3675926736735399</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4317887891582795</v>
+        <v>0.4301634070404706</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>503</v>
@@ -3438,19 +3438,19 @@
         <v>552522</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>519257</v>
+        <v>518656</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>586911</v>
+        <v>589495</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.49570111970338</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4658569151369344</v>
+        <v>0.46531767943961</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5265533860471766</v>
+        <v>0.528872274327324</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>891</v>
@@ -3459,19 +3459,19 @@
         <v>967607</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>923631</v>
+        <v>920362</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1018542</v>
+        <v>1019138</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4484787400625518</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4280962754453045</v>
+        <v>0.4265808330028217</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4720867234632464</v>
+        <v>0.4723627337036283</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>249396</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>223255</v>
+        <v>221335</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>277863</v>
+        <v>276210</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2565246196068972</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2296363594273115</v>
+        <v>0.2276616246822926</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2858053067222771</v>
+        <v>0.2841043499383245</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>149</v>
@@ -3584,19 +3584,19 @@
         <v>164633</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>143038</v>
+        <v>142237</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>190449</v>
+        <v>192404</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1508854568122361</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1310933138579065</v>
+        <v>0.1303590371662227</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1745453206449263</v>
+        <v>0.1763372607829264</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>381</v>
@@ -3605,19 +3605,19 @@
         <v>414030</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>376130</v>
+        <v>378222</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>453293</v>
+        <v>455711</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2006611955291465</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.182293125549587</v>
+        <v>0.1833070536057645</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2196903985009265</v>
+        <v>0.2208621860360925</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>208472</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>183211</v>
+        <v>184076</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>236201</v>
+        <v>239249</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2144303055973509</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1884478814162478</v>
+        <v>0.1893369817307009</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2429521826496494</v>
+        <v>0.2460871895476751</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>168</v>
@@ -3655,19 +3655,19 @@
         <v>181745</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>156732</v>
+        <v>157141</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>206807</v>
+        <v>209579</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1665685390464537</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1436442062211892</v>
+        <v>0.1440185057108963</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1895373884244052</v>
+        <v>0.1920774339678969</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>365</v>
@@ -3676,19 +3676,19 @@
         <v>390217</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>355920</v>
+        <v>354082</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>428738</v>
+        <v>428002</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1891203533863494</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1724981244013417</v>
+        <v>0.171607203846205</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.207789509346652</v>
+        <v>0.207432765627695</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>193797</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>169950</v>
+        <v>170695</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>220186</v>
+        <v>223054</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1993357639467934</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1748077702812244</v>
+        <v>0.1755739771432402</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2264793909554117</v>
+        <v>0.2294294281013546</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>223</v>
@@ -3726,19 +3726,19 @@
         <v>234794</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>208146</v>
+        <v>207592</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>264900</v>
+        <v>265511</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.215187506437406</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1907643319001329</v>
+        <v>0.1902563394616621</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2427793125853674</v>
+        <v>0.2433391921590893</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>411</v>
@@ -3747,19 +3747,19 @@
         <v>428591</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>388149</v>
+        <v>393557</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>464647</v>
+        <v>469572</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2077183806743196</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1881180794007865</v>
+        <v>0.1907392540058651</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2251931842165708</v>
+        <v>0.22757998599933</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>51361</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36531</v>
+        <v>38138</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66831</v>
+        <v>66785</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05282881889893095</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03757500418689712</v>
+        <v>0.03922833059090028</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06874093269664105</v>
+        <v>0.06869379519508753</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>109</v>
@@ -3797,19 +3797,19 @@
         <v>117224</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>96607</v>
+        <v>95808</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>137593</v>
+        <v>139331</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1074349174305924</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08853994699514357</v>
+        <v>0.08780780383227156</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1261035146345961</v>
+        <v>0.1276957542043574</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>157</v>
@@ -3818,19 +3818,19 @@
         <v>168585</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>141807</v>
+        <v>145021</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>195475</v>
+        <v>193841</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08170526546293015</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06872748959547884</v>
+        <v>0.07028494903922031</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09473800809916166</v>
+        <v>0.09394582140737488</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>269187</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>239182</v>
+        <v>238932</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>298459</v>
+        <v>296286</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2768804919500276</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2460185930896356</v>
+        <v>0.2457613579904029</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3069894172738297</v>
+        <v>0.3047546877121499</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>368</v>
@@ -3868,19 +3868,19 @@
         <v>392718</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>361959</v>
+        <v>359894</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>425008</v>
+        <v>426905</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3599235802733118</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.331733532726912</v>
+        <v>0.3298403220184636</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3895171315025089</v>
+        <v>0.3912553639268301</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>622</v>
@@ -3889,19 +3889,19 @@
         <v>661905</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>620223</v>
+        <v>618415</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>705752</v>
+        <v>707755</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3207948049472544</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3005936880631656</v>
+        <v>0.2997174326414916</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3420454842630591</v>
+        <v>0.3430162622154054</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>228216</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>203633</v>
+        <v>201919</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>257127</v>
+        <v>256482</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2578372889767541</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2300634626834899</v>
+        <v>0.2281269994958203</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2905011951620982</v>
+        <v>0.2897728987515393</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>103</v>
@@ -4014,19 +4014,19 @@
         <v>109834</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>91121</v>
+        <v>90846</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>131511</v>
+        <v>130579</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.125669710904119</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1042590735979595</v>
+        <v>0.1039441933699785</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1504716803337396</v>
+        <v>0.1494056211922053</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>320</v>
@@ -4035,19 +4035,19 @@
         <v>338050</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>306508</v>
+        <v>304961</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>371854</v>
+        <v>373511</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1921713917136106</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1742410474954397</v>
+        <v>0.1733614405966856</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2113882205614808</v>
+        <v>0.2123300933346449</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>183547</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>160804</v>
+        <v>157117</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>211063</v>
+        <v>210060</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2073711819137841</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1816760542558503</v>
+        <v>0.1775105250058577</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2384586797130789</v>
+        <v>0.2373248899095218</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>139</v>
@@ -4085,19 +4085,19 @@
         <v>150217</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>128154</v>
+        <v>129479</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>173102</v>
+        <v>175608</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1718746024217886</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1466308620718725</v>
+        <v>0.1481473963946917</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1980588563157877</v>
+        <v>0.2009261859797626</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>312</v>
@@ -4106,19 +4106,19 @@
         <v>333764</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>301507</v>
+        <v>302435</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>369669</v>
+        <v>370550</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.189735126414353</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1713977887773206</v>
+        <v>0.1719252929310428</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2101457387889903</v>
+        <v>0.2106466234036138</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>212286</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>189723</v>
+        <v>186545</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>240956</v>
+        <v>242972</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2398395928083336</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2143479185356634</v>
+        <v>0.210757368962754</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2722317780274341</v>
+        <v>0.2745086636604483</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>185</v>
@@ -4156,19 +4156,19 @@
         <v>195437</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>170360</v>
+        <v>171049</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>221911</v>
+        <v>221039</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2236149733639927</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1949220112300003</v>
+        <v>0.1957101192956335</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2539057167879631</v>
+        <v>0.2529080115603939</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>382</v>
@@ -4177,19 +4177,19 @@
         <v>407723</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>370645</v>
+        <v>370126</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>445437</v>
+        <v>445841</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2317785826188287</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2107010062742599</v>
+        <v>0.2104059804755535</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.253218110270008</v>
+        <v>0.2534476187643687</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>49921</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37161</v>
+        <v>37866</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>65929</v>
+        <v>65434</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05640109989162329</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04198394341812858</v>
+        <v>0.04278098613247123</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07448684106045</v>
+        <v>0.07392686319907307</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>80</v>
@@ -4227,19 +4227,19 @@
         <v>82870</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>65539</v>
+        <v>66976</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>101535</v>
+        <v>101294</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.094817758775469</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07498774388486666</v>
+        <v>0.07663260048125992</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1161742254361657</v>
+        <v>0.1158985026978231</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>128</v>
@@ -4248,19 +4248,19 @@
         <v>132791</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>112205</v>
+        <v>112921</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>156412</v>
+        <v>157888</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07548796228440668</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06378498853610494</v>
+        <v>0.06419247946298344</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08891557043948124</v>
+        <v>0.08975458028563334</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>211145</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>186664</v>
+        <v>185683</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>238987</v>
+        <v>237623</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2385508364095049</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2108927500450683</v>
+        <v>0.2097842145031285</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2700065659549191</v>
+        <v>0.2684660912995724</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>313</v>
@@ -4298,19 +4298,19 @@
         <v>335633</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>305818</v>
+        <v>306465</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>365358</v>
+        <v>364943</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3840229545346308</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3499097972849097</v>
+        <v>0.3506495632345717</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4180336562005029</v>
+        <v>0.4175589153440885</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>508</v>
@@ -4319,19 +4319,19 @@
         <v>546778</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>506946</v>
+        <v>507544</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>588322</v>
+        <v>589137</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.310826936968801</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2881837575419223</v>
+        <v>0.2885236123739699</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3344436690628259</v>
+        <v>0.3349070550255083</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>146371</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>126071</v>
+        <v>125608</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>169451</v>
+        <v>169836</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2915422731977668</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2511091370507351</v>
+        <v>0.2501857558188753</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3375131561354544</v>
+        <v>0.3382795717037931</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>94</v>
@@ -4444,19 +4444,19 @@
         <v>105372</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>87060</v>
+        <v>87760</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>125131</v>
+        <v>125074</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2342326149210489</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1935270396731441</v>
+        <v>0.195083862004787</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2781553022612291</v>
+        <v>0.2780281451040101</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>227</v>
@@ -4465,19 +4465,19 @@
         <v>251743</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>223170</v>
+        <v>223827</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>281467</v>
+        <v>283125</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2644586916357098</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2344427628648338</v>
+        <v>0.2351327004545523</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2956838952132189</v>
+        <v>0.2974259791909142</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>106982</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>88910</v>
+        <v>87275</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>128926</v>
+        <v>129223</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2130864084984249</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1770915233571451</v>
+        <v>0.1738344544248811</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2567945692041005</v>
+        <v>0.2573870061607038</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>63</v>
@@ -4515,19 +4515,19 @@
         <v>67767</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>52923</v>
+        <v>53475</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>84749</v>
+        <v>84820</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1506409494577353</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1176437866448759</v>
+        <v>0.1188694068433698</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1883900224472455</v>
+        <v>0.1885467376842535</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>157</v>
@@ -4536,19 +4536,19 @@
         <v>174749</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>150428</v>
+        <v>152223</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>204200</v>
+        <v>203007</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1835757337890684</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1580264713839191</v>
+        <v>0.1599121080402073</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2145149064385638</v>
+        <v>0.2132607569458991</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>86503</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>70937</v>
+        <v>69464</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>107099</v>
+        <v>105557</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1722964430811571</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1412917469474805</v>
+        <v>0.1383584374618481</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2133202045302857</v>
+        <v>0.2102491756483888</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>64</v>
@@ -4586,19 +4586,19 @@
         <v>68005</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>52336</v>
+        <v>54775</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>86064</v>
+        <v>86993</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.151168572459033</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1163381489870419</v>
+        <v>0.1217610725322797</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1913138345131133</v>
+        <v>0.1933771875611946</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>145</v>
@@ -4607,19 +4607,19 @@
         <v>154507</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>133515</v>
+        <v>131403</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>179284</v>
+        <v>178988</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1623117664239705</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1402591124720656</v>
+        <v>0.1380407276124891</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1883394827274188</v>
+        <v>0.1880293756944433</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>30342</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20998</v>
+        <v>20805</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>43028</v>
+        <v>42223</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06043571543118008</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04182414259715837</v>
+        <v>0.0414397565933242</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08570345058680907</v>
+        <v>0.08410040714884205</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -4657,19 +4657,19 @@
         <v>43547</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31041</v>
+        <v>32358</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>59046</v>
+        <v>57983</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09680043693276352</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06900243368103073</v>
+        <v>0.07192808541177503</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1312531950691328</v>
+        <v>0.1288920246519305</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>67</v>
@@ -4678,19 +4678,19 @@
         <v>73889</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>57589</v>
+        <v>57390</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>92603</v>
+        <v>93841</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07762107179841099</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06049761395075319</v>
+        <v>0.06028924449838698</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09728043259609603</v>
+        <v>0.09858116298286486</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>131860</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>112451</v>
+        <v>112125</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>152042</v>
+        <v>154744</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2626391597914711</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2239795669104516</v>
+        <v>0.2233320470082716</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3028372484180814</v>
+        <v>0.3082208401836111</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>150</v>
@@ -4728,19 +4728,19 @@
         <v>165169</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>145035</v>
+        <v>144193</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>188806</v>
+        <v>188744</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3671574262294193</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3223994105430802</v>
+        <v>0.3205276234965447</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4196996410438138</v>
+        <v>0.4195607536140339</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>274</v>
@@ -4749,19 +4749,19 @@
         <v>297029</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>265927</v>
+        <v>270353</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>326477</v>
+        <v>328479</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3120327363528403</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2793589511690214</v>
+        <v>0.2840085515327396</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3429675188086909</v>
+        <v>0.345071008763045</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>851460</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>798029</v>
+        <v>795061</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>901688</v>
+        <v>903785</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2502610622414619</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2345565379925426</v>
+        <v>0.2336841198513958</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2650238762719271</v>
+        <v>0.2656402228873362</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>502</v>
@@ -4874,19 +4874,19 @@
         <v>548491</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>507387</v>
+        <v>506448</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>594553</v>
+        <v>596757</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1553977249526959</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1437521966046667</v>
+        <v>0.143486288460827</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1684478772006039</v>
+        <v>0.1690723850781695</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1295</v>
@@ -4895,19 +4895,19 @@
         <v>1399951</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1334813</v>
+        <v>1330481</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1479133</v>
+        <v>1466741</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.201958307942656</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1925614381433485</v>
+        <v>0.1919365022728021</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2133811236153709</v>
+        <v>0.2115935068544439</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>657081</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>607410</v>
+        <v>611394</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>703705</v>
+        <v>706178</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1931289749763499</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1785297841914859</v>
+        <v>0.1797006414615695</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2068327896007238</v>
+        <v>0.207559821739037</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>483</v>
@@ -4945,19 +4945,19 @@
         <v>522010</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>479694</v>
+        <v>482722</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>567060</v>
+        <v>565555</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1478952878141157</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1359063070060796</v>
+        <v>0.1367642422134255</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1606586655612098</v>
+        <v>0.1602322510529606</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1095</v>
@@ -4966,19 +4966,19 @@
         <v>1179091</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1118045</v>
+        <v>1112754</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1242331</v>
+        <v>1244492</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1700967716038759</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1612902394139533</v>
+        <v>0.1605269946291619</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1792199070104172</v>
+        <v>0.1795315962874609</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>686317</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>637501</v>
+        <v>641457</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>735816</v>
+        <v>739642</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2017221423992561</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1873741522441458</v>
+        <v>0.1885368093822999</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2162707959859711</v>
+        <v>0.2173955094792449</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>645</v>
@@ -5016,19 +5016,19 @@
         <v>683471</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>638115</v>
+        <v>631822</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>732945</v>
+        <v>729215</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1936401647043728</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1807898626630308</v>
+        <v>0.1790070723456138</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2076571359515418</v>
+        <v>0.2066001662163041</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1294</v>
@@ -5037,19 +5037,19 @@
         <v>1369788</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1303506</v>
+        <v>1302222</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1436667</v>
+        <v>1443492</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1976069405309511</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1880450656465152</v>
+        <v>0.1878597235027114</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2072549289308565</v>
+        <v>0.2082395013866719</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>180154</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>154576</v>
+        <v>156030</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>209136</v>
+        <v>209066</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05295089350138973</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0454330421837796</v>
+        <v>0.04586017343919704</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0614691676019679</v>
+        <v>0.06144873131807142</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>309</v>
@@ -5087,19 +5087,19 @@
         <v>329579</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>290381</v>
+        <v>293438</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>364952</v>
+        <v>367493</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09337599187543684</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08227044892718285</v>
+        <v>0.08313656566651509</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1033976580461786</v>
+        <v>0.1041177676221486</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>480</v>
@@ -5108,19 +5108,19 @@
         <v>509734</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>465489</v>
+        <v>467774</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>553089</v>
+        <v>553483</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07353464745812401</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06715184481557998</v>
+        <v>0.06748157587696021</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07978909378913789</v>
+        <v>0.07984597348343984</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>1027277</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>972286</v>
+        <v>971588</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1084656</v>
+        <v>1084710</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3019369268815423</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2857739555108241</v>
+        <v>0.2855688694410333</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3188017769790623</v>
+        <v>0.3188177809511484</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1334</v>
@@ -5158,19 +5158,19 @@
         <v>1446042</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1384681</v>
+        <v>1384478</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1506330</v>
+        <v>1506947</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4096908306533789</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3923060967208825</v>
+        <v>0.3922485337327297</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4267714578619339</v>
+        <v>0.4269462943263682</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2295</v>
@@ -5179,19 +5179,19 @@
         <v>2473319</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2397219</v>
+        <v>2387334</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2558518</v>
+        <v>2548010</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3568033324643929</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3458250823366786</v>
+        <v>0.3443991073477039</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3690941804221957</v>
+        <v>0.3675782787060758</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>170852</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>145972</v>
+        <v>144897</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>194700</v>
+        <v>195816</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1518880552538787</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1297696408350128</v>
+        <v>0.1288136914602503</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1730887798825943</v>
+        <v>0.1740816081637002</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>136</v>
@@ -5544,19 +5544,19 @@
         <v>143677</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>122065</v>
+        <v>120148</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>165470</v>
+        <v>167485</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1144062666356764</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09719724623597333</v>
+        <v>0.09567064747689967</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1317594423707396</v>
+        <v>0.133364164393613</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>296</v>
@@ -5565,19 +5565,19 @@
         <v>314529</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>283327</v>
+        <v>283413</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>354018</v>
+        <v>350086</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1321159706800665</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1190096512623613</v>
+        <v>0.1190458287589859</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1487031209827128</v>
+        <v>0.1470515820540838</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>307458</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>277373</v>
+        <v>280252</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>338606</v>
+        <v>339327</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2733313213649631</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2465853577133715</v>
+        <v>0.2491453218411201</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3010223473704979</v>
+        <v>0.3016629182547273</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>299</v>
@@ -5615,19 +5615,19 @@
         <v>312969</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>282966</v>
+        <v>284421</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>347069</v>
+        <v>348489</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2492091640679737</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2253187831181178</v>
+        <v>0.2264772103345986</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2763619566957571</v>
+        <v>0.2774929610334283</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>590</v>
@@ -5636,19 +5636,19 @@
         <v>620427</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>581994</v>
+        <v>579432</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>668161</v>
+        <v>664736</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2606065995263885</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2444633521028153</v>
+        <v>0.2433871492789</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2806571139837111</v>
+        <v>0.2792185394099731</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>249397</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>222614</v>
+        <v>223374</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>276957</v>
+        <v>278938</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2217149690377396</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1979047933387084</v>
+        <v>0.1985804189289199</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2462163535760898</v>
+        <v>0.2479769184840357</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>256</v>
@@ -5686,19 +5686,19 @@
         <v>268329</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>237770</v>
+        <v>238847</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>298606</v>
+        <v>301238</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2136639490893562</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1893304336063258</v>
+        <v>0.19018790466448</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2377720281083667</v>
+        <v>0.2398680411519167</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>493</v>
@@ -5707,19 +5707,19 @@
         <v>517726</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>476616</v>
+        <v>478685</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>559242</v>
+        <v>563539</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2174679612722783</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2001995838610303</v>
+        <v>0.2010686731854089</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.234906480290819</v>
+        <v>0.236711097987418</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>73514</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>58946</v>
+        <v>57489</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>94194</v>
+        <v>91804</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06535415101921456</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05240321046480875</v>
+        <v>0.05110790310806051</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08373849925364261</v>
+        <v>0.08161389877891988</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -5757,19 +5757,19 @@
         <v>90176</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>72546</v>
+        <v>71940</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>109321</v>
+        <v>109095</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07180514604236111</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05776631193669106</v>
+        <v>0.05728425806914837</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08704924013472057</v>
+        <v>0.08686960382620673</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>156</v>
@@ -5778,19 +5778,19 @@
         <v>163690</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>138959</v>
+        <v>138332</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>188092</v>
+        <v>189475</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06875712680786071</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05836890927835642</v>
+        <v>0.05810554232274553</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07900705619879778</v>
+        <v>0.07958797873508298</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>323633</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>293722</v>
+        <v>292329</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>355534</v>
+        <v>355972</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.287711503324204</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2611203160862424</v>
+        <v>0.2598815694342719</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3160715250954927</v>
+        <v>0.316460518482206</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>408</v>
@@ -5828,19 +5828,19 @@
         <v>440696</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>409640</v>
+        <v>405400</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>478217</v>
+        <v>477374</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3509154741646326</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3261857929260856</v>
+        <v>0.3228095268476732</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.380792247479763</v>
+        <v>0.3801208966516716</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>713</v>
@@ -5849,19 +5849,19 @@
         <v>764330</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>717528</v>
+        <v>716178</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>812856</v>
+        <v>809773</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.321052341713406</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3013934605143054</v>
+        <v>0.3008264029248394</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3414356094909759</v>
+        <v>0.3401402404059656</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>140618</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>120225</v>
+        <v>120719</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>163654</v>
+        <v>163291</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1550733940881948</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1325838858343587</v>
+        <v>0.1331293215235284</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1804773852860618</v>
+        <v>0.1800767250024342</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>108</v>
@@ -5974,19 +5974,19 @@
         <v>117260</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>98569</v>
+        <v>97524</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>140538</v>
+        <v>139057</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1170104535315079</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09835919337736654</v>
+        <v>0.09731597721056852</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.140238926382767</v>
+        <v>0.1387612126840238</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>244</v>
@@ -5995,19 +5995,19 @@
         <v>257878</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>229543</v>
+        <v>227416</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>292556</v>
+        <v>289383</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1350912798510053</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1202478071858687</v>
+        <v>0.1191334836995146</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1532577415786399</v>
+        <v>0.15159513166881</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>270597</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>245681</v>
+        <v>243804</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>302080</v>
+        <v>303711</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2984140367930201</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2709366533321293</v>
+        <v>0.2688674258163665</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3331333170542708</v>
+        <v>0.3349323364320785</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>229</v>
@@ -6045,19 +6045,19 @@
         <v>242146</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>215112</v>
+        <v>215581</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>270002</v>
+        <v>269790</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.241629803694838</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2146540768341079</v>
+        <v>0.21512201331431</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2694269714684521</v>
+        <v>0.2692151098723997</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>488</v>
@@ -6066,19 +6066,19 @@
         <v>512742</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>471187</v>
+        <v>476354</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>547613</v>
+        <v>551530</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2686037011740677</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2468348465239065</v>
+        <v>0.2495415300409946</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2868709598296485</v>
+        <v>0.2889230815768483</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>221167</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>196946</v>
+        <v>196363</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>248452</v>
+        <v>246585</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.243903147984732</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2171920423678051</v>
+        <v>0.2165487488293907</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.273992535568112</v>
+        <v>0.2719338346028379</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>229</v>
@@ -6116,19 +6116,19 @@
         <v>239973</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>212981</v>
+        <v>212678</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>270471</v>
+        <v>267535</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.239461615568481</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2125272609937353</v>
+        <v>0.2122248289842532</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2698943432310497</v>
+        <v>0.2669651540440235</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>443</v>
@@ -6137,19 +6137,19 @@
         <v>461140</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>423975</v>
+        <v>425955</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>501262</v>
+        <v>496594</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2415714519351971</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2221025082747536</v>
+        <v>0.2231397222359895</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2625897216612874</v>
+        <v>0.2601441715243752</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>76841</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61083</v>
+        <v>62139</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>95222</v>
+        <v>95885</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08474008820716449</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06736220362682575</v>
+        <v>0.06852705099281592</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1050111721224442</v>
+        <v>0.1057419949395724</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>84</v>
@@ -6187,19 +6187,19 @@
         <v>86020</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>69940</v>
+        <v>67906</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>104286</v>
+        <v>104002</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08583665144877023</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06979127465511534</v>
+        <v>0.06776120254997889</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1040634236874973</v>
+        <v>0.10378090651867</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>161</v>
@@ -6208,19 +6208,19 @@
         <v>162861</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>139097</v>
+        <v>138873</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>185365</v>
+        <v>187650</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0853157571292604</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07286714672571445</v>
+        <v>0.07274942668162725</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09710449356971074</v>
+        <v>0.09830192714426866</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>197560</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>173533</v>
+        <v>173544</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>222360</v>
+        <v>223755</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2178693329268886</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1913722342723588</v>
+        <v>0.1913837181929555</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2452185682885412</v>
+        <v>0.246757404147822</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>297</v>
@@ -6258,19 +6258,19 @@
         <v>316736</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>288279</v>
+        <v>289199</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>350043</v>
+        <v>348991</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3160614757564029</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2876651919623039</v>
+        <v>0.2885825588806919</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3492968181222733</v>
+        <v>0.3482479006794848</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>490</v>
@@ -6279,19 +6279,19 @@
         <v>514297</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>474699</v>
+        <v>476758</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>555979</v>
+        <v>557276</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2694178099104694</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.248674597777072</v>
+        <v>0.2497527450496622</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2912535131336356</v>
+        <v>0.2919328402605226</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>133765</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>115151</v>
+        <v>112723</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>157155</v>
+        <v>157430</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1630243982434424</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1403386213507342</v>
+        <v>0.1373797228687503</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1915306366488512</v>
+        <v>0.1918656036811152</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>78</v>
@@ -6404,19 +6404,19 @@
         <v>86107</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>69768</v>
+        <v>68850</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>107036</v>
+        <v>107069</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1116736401202636</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09048394008455853</v>
+        <v>0.08929241554434557</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1388171211324348</v>
+        <v>0.1388596051756904</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>204</v>
@@ -6425,19 +6425,19 @@
         <v>219872</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>191224</v>
+        <v>192232</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>247494</v>
+        <v>252230</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1381469580843472</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.12014716912719</v>
+        <v>0.1207802890971806</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1555018022249189</v>
+        <v>0.1584777013482291</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>220336</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>194539</v>
+        <v>196894</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>247469</v>
+        <v>248003</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2685311977012793</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2370913416897235</v>
+        <v>0.2399622295578211</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.301600019886674</v>
+        <v>0.3022502140624305</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>180</v>
@@ -6475,19 +6475,19 @@
         <v>189654</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>166072</v>
+        <v>165450</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>213602</v>
+        <v>217050</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2459650528879428</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2153816482305623</v>
+        <v>0.2145753898567325</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2770241515922968</v>
+        <v>0.2814961648278357</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>394</v>
@@ -6496,19 +6496,19 @@
         <v>409989</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>381035</v>
+        <v>374219</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>449773</v>
+        <v>444018</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2575987803868433</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2394067279912824</v>
+        <v>0.2351239116146817</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2825952433967383</v>
+        <v>0.2789790277649254</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>221104</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>195899</v>
+        <v>193702</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>246422</v>
+        <v>247983</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2694671115113623</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2387486354354901</v>
+        <v>0.2360722222404083</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3003238450610501</v>
+        <v>0.3022254599364382</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>190</v>
@@ -6546,19 +6546,19 @@
         <v>194852</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>171575</v>
+        <v>173936</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>218474</v>
+        <v>222346</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2527076330522264</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2225189053889211</v>
+        <v>0.2255809631962079</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2833426390007942</v>
+        <v>0.288364116559833</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>398</v>
@@ -6567,19 +6567,19 @@
         <v>415956</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>381577</v>
+        <v>378298</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>454506</v>
+        <v>451225</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2613477976452521</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2397469374411136</v>
+        <v>0.2376866972462056</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2855687495739505</v>
+        <v>0.2835073109944598</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>61203</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>47494</v>
+        <v>46691</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>78086</v>
+        <v>78743</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07459058763931975</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05788258295652424</v>
+        <v>0.05690436378404112</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0951665008924914</v>
+        <v>0.09596750241994391</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>72</v>
@@ -6617,19 +6617,19 @@
         <v>74409</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57733</v>
+        <v>59082</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>92431</v>
+        <v>92021</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0965029768780812</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0748750968426192</v>
+        <v>0.07662444093311696</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.119875875906871</v>
+        <v>0.1193433608231451</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>131</v>
@@ -6638,19 +6638,19 @@
         <v>135613</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>114651</v>
+        <v>114355</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>157967</v>
+        <v>159148</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08520628586761969</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07203590189849944</v>
+        <v>0.07185001389341981</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09925149809609107</v>
+        <v>0.09999354462584943</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>184114</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>161128</v>
+        <v>161181</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>208784</v>
+        <v>210175</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2243867049045962</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1963727717726707</v>
+        <v>0.1964375374854299</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.254452253295569</v>
+        <v>0.2561484531747003</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>208</v>
@@ -6688,19 +6688,19 @@
         <v>226036</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>201654</v>
+        <v>199196</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>252962</v>
+        <v>252851</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2931506970614861</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2615282690884348</v>
+        <v>0.2583408274022638</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3280712738952619</v>
+        <v>0.3279263095117024</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>385</v>
@@ -6709,19 +6709,19 @@
         <v>410151</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>373056</v>
+        <v>374486</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>443868</v>
+        <v>447525</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2577001780159376</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2343935379893267</v>
+        <v>0.2352915277219837</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2788851429134914</v>
+        <v>0.2811824233108324</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>115882</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>97349</v>
+        <v>96710</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>136203</v>
+        <v>135262</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2319394288454217</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1948447887640512</v>
+        <v>0.1935660407449803</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2726124544561114</v>
+        <v>0.2707284984640459</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>84</v>
@@ -6834,19 +6834,19 @@
         <v>90597</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>74328</v>
+        <v>73027</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>110110</v>
+        <v>108372</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1857808907391556</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1524180733818289</v>
+        <v>0.1497513230250628</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2257949771248636</v>
+        <v>0.2222298899264907</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>194</v>
@@ -6855,19 +6855,19 @@
         <v>206480</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>180619</v>
+        <v>181165</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>233728</v>
+        <v>235750</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2091399088443153</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1829457434316812</v>
+        <v>0.1834986385104997</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2367397614839072</v>
+        <v>0.2387870569766943</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>112762</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>92044</v>
+        <v>93614</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>131153</v>
+        <v>134876</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2256935379984828</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1842259709621582</v>
+        <v>0.1873701491943081</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2625042589644216</v>
+        <v>0.2699555664816378</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>78</v>
@@ -6905,19 +6905,19 @@
         <v>81519</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>67018</v>
+        <v>65722</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>99386</v>
+        <v>99246</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1671642868898351</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1374292281754972</v>
+        <v>0.134770469768973</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.203802480283567</v>
+        <v>0.2035156443664753</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>184</v>
@@ -6926,19 +6926,19 @@
         <v>194281</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>169228</v>
+        <v>170687</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>220559</v>
+        <v>222923</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1967836356044934</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1714087858108287</v>
+        <v>0.1728856421816675</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2234004853025882</v>
+        <v>0.2257946794899442</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>93752</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>77264</v>
+        <v>76457</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>115148</v>
+        <v>111910</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.187644572239724</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1546443690368811</v>
+        <v>0.15302870735171</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2304694758395599</v>
+        <v>0.223989285318137</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>64</v>
@@ -6976,19 +6976,19 @@
         <v>66364</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>53503</v>
+        <v>52401</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>83149</v>
+        <v>85298</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1360867374222616</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1097141227338469</v>
+        <v>0.1074538813596267</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1705065402265169</v>
+        <v>0.1749138843318806</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>151</v>
@@ -6997,19 +6997,19 @@
         <v>160115</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>137774</v>
+        <v>139267</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>184153</v>
+        <v>184730</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1621781269327202</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1395490396850597</v>
+        <v>0.1410614603472336</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.186525950582984</v>
+        <v>0.1871097316642842</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>44665</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32685</v>
+        <v>32157</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60396</v>
+        <v>60967</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08939832368821028</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06541888301940042</v>
+        <v>0.06436318523904304</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1208840707246771</v>
+        <v>0.1220258198049503</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>49</v>
@@ -7047,19 +7047,19 @@
         <v>52292</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39525</v>
+        <v>40069</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>67317</v>
+        <v>68412</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1072318296471818</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08105067817175245</v>
+        <v>0.08216743776434662</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.138042890947047</v>
+        <v>0.1402878482975339</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>88</v>
@@ -7068,19 +7068,19 @@
         <v>96958</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>77391</v>
+        <v>79323</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>119127</v>
+        <v>117148</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09820699468349525</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07838847017657748</v>
+        <v>0.08034466553261138</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1206622867472654</v>
+        <v>0.1186574427093638</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>132562</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>114570</v>
+        <v>112220</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>154871</v>
+        <v>153622</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2653241372281612</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2293129361858659</v>
+        <v>0.2246098229295351</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3099753687647297</v>
+        <v>0.307476320656104</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>178</v>
@@ -7118,19 +7118,19 @@
         <v>196884</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>175420</v>
+        <v>174486</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>220258</v>
+        <v>217578</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4037362553015659</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.359721261940319</v>
+        <v>0.3578055218252147</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4516674436870577</v>
+        <v>0.4461708295955218</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>300</v>
@@ -7139,19 +7139,19 @@
         <v>329447</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>298960</v>
+        <v>299364</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>358956</v>
+        <v>359407</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3336913339349759</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3028115820383067</v>
+        <v>0.3032209572958303</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3635807149852191</v>
+        <v>0.3640370628282635</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>561117</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>520735</v>
+        <v>519257</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>607858</v>
+        <v>608761</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1674086240595759</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1553608085182518</v>
+        <v>0.1549196481101822</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1813538064072695</v>
+        <v>0.1816230749254037</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>406</v>
@@ -7264,19 +7264,19 @@
         <v>437641</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>396827</v>
+        <v>398486</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>478993</v>
+        <v>479054</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1244466533301236</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1128409011682791</v>
+        <v>0.1133124072230353</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1362052857081546</v>
+        <v>0.1362226862812661</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>938</v>
@@ -7285,19 +7285,19 @@
         <v>998758</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>941352</v>
+        <v>935604</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1057062</v>
+        <v>1060552</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.14541186481658</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.137053920150335</v>
+        <v>0.1362169834315577</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1539004138267084</v>
+        <v>0.1544085851440976</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>911152</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>859136</v>
+        <v>855514</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>961032</v>
+        <v>959167</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2718410742115321</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2563222100371526</v>
+        <v>0.2552417636467485</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2867228814450746</v>
+        <v>0.2861664970117132</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>786</v>
@@ -7335,19 +7335,19 @@
         <v>826287</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>776430</v>
+        <v>775805</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>878239</v>
+        <v>873784</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2349609590318305</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2207837685465205</v>
+        <v>0.2206059650845922</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.249733918657314</v>
+        <v>0.2484670377383082</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1656</v>
@@ -7356,19 +7356,19 @@
         <v>1737439</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1669613</v>
+        <v>1655339</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1816385</v>
+        <v>1812127</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2529582576021507</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2430832849532188</v>
+        <v>0.2410051387501845</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2644522385054389</v>
+        <v>0.2638323538434995</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>785419</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>733103</v>
+        <v>734361</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>832778</v>
+        <v>839150</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2343289094314714</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2187205768059126</v>
+        <v>0.2190958950848293</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2484583211224188</v>
+        <v>0.2503594192785397</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>739</v>
@@ -7406,19 +7406,19 @@
         <v>769518</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>717586</v>
+        <v>720259</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>817705</v>
+        <v>822185</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.218818418679268</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2040510644661462</v>
+        <v>0.2048112825292678</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2325206705919247</v>
+        <v>0.2337946057627417</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1485</v>
@@ -7427,19 +7427,19 @@
         <v>1554938</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1484904</v>
+        <v>1482113</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1620600</v>
+        <v>1622656</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2263874550469537</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.21619108006396</v>
+        <v>0.2157847376689682</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2359473870308945</v>
+        <v>0.2362466738474623</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>256223</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>224508</v>
+        <v>224671</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>289962</v>
+        <v>289046</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0764439428198172</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06698171825289284</v>
+        <v>0.06703042005753536</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08650985495368894</v>
+        <v>0.08623647331086511</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>291</v>
@@ -7477,19 +7477,19 @@
         <v>302898</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>269875</v>
+        <v>270741</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>340524</v>
+        <v>334218</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08613136407850422</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07674110931016237</v>
+        <v>0.07698714169052008</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09683065048984695</v>
+        <v>0.09503735849958621</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>536</v>
@@ -7498,19 +7498,19 @@
         <v>559121</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>508764</v>
+        <v>512268</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>606144</v>
+        <v>604699</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08140395441832461</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07407234273850954</v>
+        <v>0.07458242874273545</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08825004529253311</v>
+        <v>0.08803973356225775</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>837870</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>785034</v>
+        <v>790224</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>885480</v>
+        <v>893047</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2499774494776034</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2342141196625347</v>
+        <v>0.2357622924203129</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2641817992992297</v>
+        <v>0.2664394410662781</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1091</v>
@@ -7548,19 +7548,19 @@
         <v>1180354</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1126409</v>
+        <v>1122813</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1236409</v>
+        <v>1234718</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3356426048802736</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3203029355009147</v>
+        <v>0.3192803543782433</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3515824823065239</v>
+        <v>0.3511014849682754</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1888</v>
@@ -7569,19 +7569,19 @@
         <v>2018224</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1944371</v>
+        <v>1950078</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2097443</v>
+        <v>2099227</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.293838468115991</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2830860253646693</v>
+        <v>0.2839169060761881</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3053721853130037</v>
+        <v>0.3056320236496845</v>
       </c>
     </row>
     <row r="33">
